--- a/20240626/製造業新聞——製造業+創新 第一類F.xlsx
+++ b/20240626/製造業新聞——製造業+創新 第一類F.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jessy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704D0F1B-138B-4747-B5D9-26B0E4F77034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0AC5BD-F33B-4B61-B025-C1699CB4153E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3660" yWindow="2505" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3882,6 +3882,9 @@
     <t>工研院「眺望2024產業發展趨勢研討會」揭示未來十大跨域領域趨勢，協助企業打造韌性新肌力</t>
   </si>
   <si>
+    <t>產業相關的關鍵詞有：台灣全球無線平台策進會、宏碁集團、施振榮、GloRa、物聯網、智慧交通、智慧城市、智慧農業、緊急救援人員定位、國際市場</t>
+  </si>
+  <si>
     <t xml:space="preserve">由宏碁集團創辦人施振榮號召催生的「台灣全球無線平台策進會」，18日正式成立，包括宏碁旗下多家子公司及聯發科、凌群等上市公司皆為會員，將以「GloRa」品牌打出台灣夢幻虛擬國家隊，搶進崛起的全球AIoT大商機。
 台灣全球無線平台策進會於18日召開會員大會，邀請施振榮擔任榮譽理事長外，推選交大副校長林一平擔任理事長，會員則包括宏碁集團旗下相關企業（宏碁通信、宏碁智通、智聯服務、展碁），與全波、智頻、聯發科、凌群、南京資訊、常榮機械等等其它企業。
 此外還有交通大學、工研院、資策會、台北市電腦公會、台灣物聯網產業技術協會等單位。
@@ -3893,6 +3896,9 @@
   </si>
   <si>
     <t>施振榮組台灣隊 搶AIoT商機</t>
+  </si>
+  <si>
+    <t>產業相關的關鍵詞有：金屬加工工具機、鈑金機械、雷射加工設備、全電式折床、遠端振鏡雷射焊接系統、2D/3D雷射切割焊接複合機、自動化系統、ESG精神、京傳企業、MAZAK、IPG、Fujikura、Canon、奇想創造公司、總統創新獎、台灣工具機械產業</t>
   </si>
   <si>
     <t>KANFON岡豐精密鈑金機械的五大機種榮獲2023年德國iF設計大獎，是德國iF設計獎自1954年創立以來，台灣第一家金屬加工工具機廠商獲此殊榮。
@@ -7057,12 +7063,6 @@
   <si>
     <t>產業、福建、招商引資、優勢產業、RCEP</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金屬加工工具機、鈑金機械、雷射加工設備、全電式折床、遠端振鏡雷射焊接系統、2D/3D雷射切割焊接複合機、自動化系統、ESG精神、京傳企業、MAZAK、IPG、Fujikura、Canon、奇想創造公司、總統創新獎、台灣工具機械產業</t>
-  </si>
-  <si>
-    <t>台灣全球無線平台策進會、宏碁集團、施振榮、GloRa、物聯網、智慧交通、智慧城市、智慧農業、緊急救援人員定位、國際市場</t>
   </si>
 </sst>
 </file>
@@ -7460,8 +7460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
-      <selection activeCell="F236" sqref="F236"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F376" sqref="F376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8893,7 +8893,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="B72" t="s">
         <v>15</v>
@@ -8905,15 +8905,15 @@
         <v>27</v>
       </c>
       <c r="E72" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="F72" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="B73" t="s">
         <v>15</v>
@@ -8925,15 +8925,15 @@
         <v>27</v>
       </c>
       <c r="E73" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="F73" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="B74" t="s">
         <v>15</v>
@@ -8945,15 +8945,15 @@
         <v>16</v>
       </c>
       <c r="E74" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="F74" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="B75" t="s">
         <v>15</v>
@@ -8965,15 +8965,15 @@
         <v>132</v>
       </c>
       <c r="E75" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="F75" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="B76" t="s">
         <v>32</v>
@@ -8985,15 +8985,15 @@
         <v>132</v>
       </c>
       <c r="E76" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="F76" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="B77" t="s">
         <v>32</v>
@@ -9005,15 +9005,15 @@
         <v>132</v>
       </c>
       <c r="E77" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="F77" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="B78" t="s">
         <v>15</v>
@@ -9025,15 +9025,15 @@
         <v>27</v>
       </c>
       <c r="E78" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="F78" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="B79" t="s">
         <v>15</v>
@@ -9045,15 +9045,15 @@
         <v>132</v>
       </c>
       <c r="E79" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="F79" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="B80" t="s">
         <v>15</v>
@@ -9065,15 +9065,15 @@
         <v>27</v>
       </c>
       <c r="E80" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="F80" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="B81" t="s">
         <v>15</v>
@@ -9085,15 +9085,15 @@
         <v>27</v>
       </c>
       <c r="E81" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="F81" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="B82" t="s">
         <v>32</v>
@@ -9105,15 +9105,15 @@
         <v>132</v>
       </c>
       <c r="E82" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="F82" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="B83" t="s">
         <v>15</v>
@@ -9125,15 +9125,15 @@
         <v>318</v>
       </c>
       <c r="E83" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="F83" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
@@ -9145,15 +9145,15 @@
         <v>16</v>
       </c>
       <c r="E84" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="F84" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="B85" t="s">
         <v>15</v>
@@ -9165,15 +9165,15 @@
         <v>27</v>
       </c>
       <c r="E85" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="F85" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="B86" t="s">
         <v>15</v>
@@ -9185,15 +9185,15 @@
         <v>132</v>
       </c>
       <c r="E86" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="F86" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="B87" t="s">
         <v>32</v>
@@ -9205,15 +9205,15 @@
         <v>27</v>
       </c>
       <c r="E87" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="F87" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="B88" t="s">
         <v>32</v>
@@ -9225,15 +9225,15 @@
         <v>16</v>
       </c>
       <c r="E88" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="F88" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="B89" t="s">
         <v>32</v>
@@ -9245,15 +9245,15 @@
         <v>16</v>
       </c>
       <c r="E89" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="F89" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
@@ -9265,15 +9265,15 @@
         <v>12</v>
       </c>
       <c r="E90" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="F90" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="B91" t="s">
         <v>32</v>
@@ -9285,15 +9285,15 @@
         <v>27</v>
       </c>
       <c r="E91" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="F91" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="B92" t="s">
         <v>32</v>
@@ -9305,15 +9305,15 @@
         <v>27</v>
       </c>
       <c r="E92" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="F92" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="B93" t="s">
         <v>15</v>
@@ -9325,15 +9325,15 @@
         <v>27</v>
       </c>
       <c r="E93" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="F93" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="B94" t="s">
         <v>15</v>
@@ -9345,15 +9345,15 @@
         <v>27</v>
       </c>
       <c r="E94" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="F94" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
@@ -9365,15 +9365,15 @@
         <v>12</v>
       </c>
       <c r="E95" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="F95" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="B96" t="s">
         <v>15</v>
@@ -9385,15 +9385,15 @@
         <v>132</v>
       </c>
       <c r="E96" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="F96" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="B97" t="s">
         <v>15</v>
@@ -9405,15 +9405,15 @@
         <v>16</v>
       </c>
       <c r="E97" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="F97" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
@@ -9425,15 +9425,15 @@
         <v>12</v>
       </c>
       <c r="E98" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="F98" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="B99" t="s">
         <v>15</v>
@@ -9445,15 +9445,15 @@
         <v>27</v>
       </c>
       <c r="E99" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="F99" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="B100" t="s">
         <v>15</v>
@@ -9465,15 +9465,15 @@
         <v>27</v>
       </c>
       <c r="E100" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="F100" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
@@ -9485,15 +9485,15 @@
         <v>8</v>
       </c>
       <c r="E101" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="F101" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="B102" t="s">
         <v>15</v>
@@ -9505,15 +9505,15 @@
         <v>27</v>
       </c>
       <c r="E102" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="F102" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="B103" t="s">
         <v>7</v>
@@ -9525,15 +9525,15 @@
         <v>27</v>
       </c>
       <c r="E103" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="F103" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="B104" t="s">
         <v>15</v>
@@ -9545,15 +9545,15 @@
         <v>27</v>
       </c>
       <c r="E104" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="F104" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="B105" t="s">
         <v>15</v>
@@ -9565,15 +9565,15 @@
         <v>27</v>
       </c>
       <c r="E105" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="F105" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
@@ -9585,15 +9585,15 @@
         <v>8</v>
       </c>
       <c r="E106" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="F106" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="B107" t="s">
         <v>15</v>
@@ -9605,15 +9605,15 @@
         <v>8</v>
       </c>
       <c r="E107" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="F107" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="B108" t="s">
         <v>15</v>
@@ -9625,15 +9625,15 @@
         <v>8</v>
       </c>
       <c r="E108" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F108" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="B109" t="s">
         <v>15</v>
@@ -9645,15 +9645,15 @@
         <v>8</v>
       </c>
       <c r="E109" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="F109" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="B110" t="s">
         <v>15</v>
@@ -9665,15 +9665,15 @@
         <v>27</v>
       </c>
       <c r="E110" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="F110" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B111" t="s">
         <v>15</v>
@@ -9685,15 +9685,15 @@
         <v>27</v>
       </c>
       <c r="E111" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="F111" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="B112" t="s">
         <v>15</v>
@@ -9705,15 +9705,15 @@
         <v>8</v>
       </c>
       <c r="E112" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="F112" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B113" t="s">
         <v>15</v>
@@ -9725,15 +9725,15 @@
         <v>132</v>
       </c>
       <c r="E113" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="F113" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="B114" t="s">
         <v>15</v>
@@ -9745,15 +9745,15 @@
         <v>16</v>
       </c>
       <c r="E114" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="F114" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="B115" t="s">
         <v>15</v>
@@ -9765,15 +9765,15 @@
         <v>27</v>
       </c>
       <c r="E115" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="F115" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="B116" t="s">
         <v>234</v>
@@ -9785,15 +9785,15 @@
         <v>12</v>
       </c>
       <c r="E116" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="F116" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B117" t="s">
         <v>15</v>
@@ -9805,15 +9805,15 @@
         <v>132</v>
       </c>
       <c r="E117" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="F117" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B118" t="s">
         <v>234</v>
@@ -9825,15 +9825,15 @@
         <v>12</v>
       </c>
       <c r="E118" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="F118" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="B119" t="s">
         <v>32</v>
@@ -9845,15 +9845,15 @@
         <v>12</v>
       </c>
       <c r="E119" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="F119" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="B120" t="s">
         <v>15</v>
@@ -9865,15 +9865,15 @@
         <v>27</v>
       </c>
       <c r="E120" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="F120" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="B121" t="s">
         <v>15</v>
@@ -9885,15 +9885,15 @@
         <v>132</v>
       </c>
       <c r="E121" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="F121" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="B122" t="s">
         <v>15</v>
@@ -9905,15 +9905,15 @@
         <v>27</v>
       </c>
       <c r="E122" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="F122" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="B123" t="s">
         <v>32</v>
@@ -9925,15 +9925,15 @@
         <v>27</v>
       </c>
       <c r="E123" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="F123" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B124" t="s">
         <v>15</v>
@@ -9945,15 +9945,15 @@
         <v>12</v>
       </c>
       <c r="E124" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="F124" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="B125" t="s">
         <v>15</v>
@@ -9965,15 +9965,15 @@
         <v>132</v>
       </c>
       <c r="E125" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="F125" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B126" t="s">
         <v>32</v>
@@ -9985,15 +9985,15 @@
         <v>27</v>
       </c>
       <c r="E126" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="F126" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="B127" t="s">
         <v>32</v>
@@ -10005,15 +10005,15 @@
         <v>16</v>
       </c>
       <c r="E127" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="F127" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="B128" t="s">
         <v>234</v>
@@ -10025,15 +10025,15 @@
         <v>132</v>
       </c>
       <c r="E128" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="F128" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="B129" t="s">
         <v>32</v>
@@ -10045,15 +10045,15 @@
         <v>27</v>
       </c>
       <c r="E129" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="F129" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="B130" t="s">
         <v>15</v>
@@ -10065,15 +10065,15 @@
         <v>16</v>
       </c>
       <c r="E130" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="F130" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="B131" t="s">
         <v>234</v>
@@ -10085,15 +10085,15 @@
         <v>27</v>
       </c>
       <c r="E131" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="F131" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B132" t="s">
         <v>32</v>
@@ -10105,15 +10105,15 @@
         <v>8</v>
       </c>
       <c r="E132" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="F132" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B133" t="s">
         <v>15</v>
@@ -10125,15 +10125,15 @@
         <v>27</v>
       </c>
       <c r="E133" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="F133" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="B134" t="s">
         <v>32</v>
@@ -10145,15 +10145,15 @@
         <v>27</v>
       </c>
       <c r="E134" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="F134" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B135" t="s">
         <v>15</v>
@@ -10165,15 +10165,15 @@
         <v>8</v>
       </c>
       <c r="E135" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="F135" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="B136" t="s">
         <v>32</v>
@@ -10185,15 +10185,15 @@
         <v>27</v>
       </c>
       <c r="E136" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="F136" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B137" t="s">
         <v>305</v>
@@ -10205,15 +10205,15 @@
         <v>27</v>
       </c>
       <c r="E137" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="F137" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="B138" t="s">
         <v>15</v>
@@ -10225,15 +10225,15 @@
         <v>16</v>
       </c>
       <c r="E138" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="F138" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B139" t="s">
         <v>15</v>
@@ -10245,15 +10245,15 @@
         <v>16</v>
       </c>
       <c r="E139" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="F139" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="B140" t="s">
         <v>32</v>
@@ -10265,15 +10265,15 @@
         <v>12</v>
       </c>
       <c r="E140" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="F140" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="B141" t="s">
         <v>15</v>
@@ -10285,15 +10285,15 @@
         <v>27</v>
       </c>
       <c r="E141" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="F141" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="B142" t="s">
         <v>32</v>
@@ -10305,15 +10305,15 @@
         <v>27</v>
       </c>
       <c r="E142" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F142" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B143" t="s">
         <v>15</v>
@@ -10325,15 +10325,15 @@
         <v>27</v>
       </c>
       <c r="E143" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="F143" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="B144" t="s">
         <v>7</v>
@@ -10345,15 +10345,15 @@
         <v>12</v>
       </c>
       <c r="E144" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="F144" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="B145" t="s">
         <v>40</v>
@@ -10365,15 +10365,15 @@
         <v>27</v>
       </c>
       <c r="E145" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="F145" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="B146" t="s">
         <v>15</v>
@@ -10385,15 +10385,15 @@
         <v>27</v>
       </c>
       <c r="E146" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="F146" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
@@ -10405,15 +10405,15 @@
         <v>12</v>
       </c>
       <c r="E147" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="F147" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="B148" t="s">
         <v>32</v>
@@ -10425,15 +10425,15 @@
         <v>16</v>
       </c>
       <c r="E148" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="F148" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="B149" t="s">
         <v>15</v>
@@ -10445,15 +10445,15 @@
         <v>132</v>
       </c>
       <c r="E149" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="F149" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="B150" t="s">
         <v>15</v>
@@ -10465,15 +10465,15 @@
         <v>16</v>
       </c>
       <c r="E150" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="F150" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="B151" t="s">
         <v>7</v>
@@ -10485,15 +10485,15 @@
         <v>8</v>
       </c>
       <c r="E151" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="F151" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="B152" t="s">
         <v>7</v>
@@ -10505,15 +10505,15 @@
         <v>8</v>
       </c>
       <c r="E152" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="F152" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="B153" t="s">
         <v>7</v>
@@ -10525,15 +10525,15 @@
         <v>12</v>
       </c>
       <c r="E153" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="F153" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="B154" t="s">
         <v>15</v>
@@ -10545,15 +10545,15 @@
         <v>12</v>
       </c>
       <c r="E154" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="F154" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="B155" t="s">
         <v>40</v>
@@ -10565,15 +10565,15 @@
         <v>8</v>
       </c>
       <c r="E155" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="F155" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="B156" t="s">
         <v>7</v>
@@ -10585,15 +10585,15 @@
         <v>12</v>
       </c>
       <c r="E156" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="F156" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="B157" t="s">
         <v>7</v>
@@ -10605,15 +10605,15 @@
         <v>12</v>
       </c>
       <c r="E157" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="F157" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="B158" t="s">
         <v>15</v>
@@ -10625,15 +10625,15 @@
         <v>27</v>
       </c>
       <c r="E158" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="F158" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="B159" t="s">
         <v>7</v>
@@ -10645,15 +10645,15 @@
         <v>8</v>
       </c>
       <c r="E159" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="F159" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B160" t="s">
         <v>15</v>
@@ -10665,15 +10665,15 @@
         <v>27</v>
       </c>
       <c r="E160" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="F160" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="B161" t="s">
         <v>15</v>
@@ -10685,15 +10685,15 @@
         <v>132</v>
       </c>
       <c r="E161" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="F161" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="B162" t="s">
         <v>15</v>
@@ -10705,15 +10705,15 @@
         <v>8</v>
       </c>
       <c r="E162" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="F162" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B163" t="s">
         <v>32</v>
@@ -10725,15 +10725,15 @@
         <v>27</v>
       </c>
       <c r="E163" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="F163" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="B164" t="s">
         <v>32</v>
@@ -10745,15 +10745,15 @@
         <v>346</v>
       </c>
       <c r="E164" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="F164" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="B165" t="s">
         <v>32</v>
@@ -10765,15 +10765,15 @@
         <v>346</v>
       </c>
       <c r="E165" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="F165" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="B166" t="s">
         <v>15</v>
@@ -10785,15 +10785,15 @@
         <v>8</v>
       </c>
       <c r="E166" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="F166" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="B167" t="s">
         <v>15</v>
@@ -10805,15 +10805,15 @@
         <v>132</v>
       </c>
       <c r="E167" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="F167" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B168" t="s">
         <v>15</v>
@@ -10825,15 +10825,15 @@
         <v>8</v>
       </c>
       <c r="E168" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="F168" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B169" t="s">
         <v>32</v>
@@ -10845,15 +10845,15 @@
         <v>27</v>
       </c>
       <c r="E169" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="F169" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B170" t="s">
         <v>15</v>
@@ -10865,15 +10865,15 @@
         <v>233</v>
       </c>
       <c r="E170" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="F170" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B171" t="s">
         <v>15</v>
@@ -10885,15 +10885,15 @@
         <v>233</v>
       </c>
       <c r="E171" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="F171" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B172" t="s">
         <v>40</v>
@@ -10905,15 +10905,15 @@
         <v>8</v>
       </c>
       <c r="E172" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="F172" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B173" t="s">
         <v>32</v>
@@ -10925,15 +10925,15 @@
         <v>132</v>
       </c>
       <c r="E173" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="F173" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B174" t="s">
         <v>32</v>
@@ -10945,15 +10945,15 @@
         <v>280</v>
       </c>
       <c r="E174" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="F174" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B175" t="s">
         <v>7</v>
@@ -10965,15 +10965,15 @@
         <v>8</v>
       </c>
       <c r="E175" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="F175" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B176" t="s">
         <v>234</v>
@@ -10985,15 +10985,15 @@
         <v>132</v>
       </c>
       <c r="E176" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="F176" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B177" t="s">
         <v>32</v>
@@ -11005,15 +11005,15 @@
         <v>27</v>
       </c>
       <c r="E177" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="F177" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B178" t="s">
         <v>40</v>
@@ -11025,15 +11025,15 @@
         <v>8</v>
       </c>
       <c r="E178" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="F178" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B179" t="s">
         <v>40</v>
@@ -11045,15 +11045,15 @@
         <v>27</v>
       </c>
       <c r="E179" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="F179" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B180" t="s">
         <v>40</v>
@@ -11065,15 +11065,15 @@
         <v>8</v>
       </c>
       <c r="E180" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="F180" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B181" t="s">
         <v>7</v>
@@ -11085,15 +11085,15 @@
         <v>8</v>
       </c>
       <c r="E181" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="F181" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B182" t="s">
         <v>7</v>
@@ -11105,15 +11105,15 @@
         <v>8</v>
       </c>
       <c r="E182" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="F182" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B183" t="s">
         <v>15</v>
@@ -11125,15 +11125,15 @@
         <v>27</v>
       </c>
       <c r="E183" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="F183" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B184" t="s">
         <v>32</v>
@@ -11145,15 +11145,15 @@
         <v>27</v>
       </c>
       <c r="E184" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="F184" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B185" t="s">
         <v>7</v>
@@ -11165,15 +11165,15 @@
         <v>8</v>
       </c>
       <c r="E185" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="F185" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B186" t="s">
         <v>15</v>
@@ -11185,15 +11185,15 @@
         <v>27</v>
       </c>
       <c r="E186" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="F186" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B187" t="s">
         <v>234</v>
@@ -11205,15 +11205,15 @@
         <v>16</v>
       </c>
       <c r="E187" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="F187" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B188" t="s">
         <v>15</v>
@@ -11225,15 +11225,15 @@
         <v>27</v>
       </c>
       <c r="E188" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="F188" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B189" t="s">
         <v>32</v>
@@ -11245,15 +11245,15 @@
         <v>27</v>
       </c>
       <c r="E189" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="F189" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B190" t="s">
         <v>7</v>
@@ -11265,15 +11265,15 @@
         <v>12</v>
       </c>
       <c r="E190" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="F190" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B191" t="s">
         <v>7</v>
@@ -11285,15 +11285,15 @@
         <v>8</v>
       </c>
       <c r="E191" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="F191" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B192" t="s">
         <v>15</v>
@@ -11305,15 +11305,15 @@
         <v>16</v>
       </c>
       <c r="E192" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="F192" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B193" t="s">
         <v>234</v>
@@ -11325,15 +11325,15 @@
         <v>233</v>
       </c>
       <c r="E193" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F193" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B194" t="s">
         <v>15</v>
@@ -11345,15 +11345,15 @@
         <v>8</v>
       </c>
       <c r="E194" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="F194" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B195" t="s">
         <v>15</v>
@@ -11365,15 +11365,15 @@
         <v>8</v>
       </c>
       <c r="E195" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="F195" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B196" t="s">
         <v>15</v>
@@ -11385,15 +11385,15 @@
         <v>27</v>
       </c>
       <c r="E196" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="F196" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B197" t="s">
         <v>15</v>
@@ -11405,15 +11405,15 @@
         <v>27</v>
       </c>
       <c r="E197" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="F197" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B198" t="s">
         <v>15</v>
@@ -11425,15 +11425,15 @@
         <v>27</v>
       </c>
       <c r="E198" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="F198" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B199" t="s">
         <v>15</v>
@@ -11445,15 +11445,15 @@
         <v>27</v>
       </c>
       <c r="E199" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="F199" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B200" t="s">
         <v>32</v>
@@ -11465,15 +11465,15 @@
         <v>27</v>
       </c>
       <c r="E200" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="F200" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B201" t="s">
         <v>7</v>
@@ -11485,15 +11485,15 @@
         <v>27</v>
       </c>
       <c r="E201" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="F201" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B202" t="s">
         <v>15</v>
@@ -11505,15 +11505,15 @@
         <v>27</v>
       </c>
       <c r="E202" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="F202" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B203" t="s">
         <v>7</v>
@@ -11525,15 +11525,15 @@
         <v>12</v>
       </c>
       <c r="E203" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="F203" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B204" t="s">
         <v>15</v>
@@ -11545,15 +11545,15 @@
         <v>27</v>
       </c>
       <c r="E204" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="F204" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B205" t="s">
         <v>15</v>
@@ -11565,15 +11565,15 @@
         <v>27</v>
       </c>
       <c r="E205" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="F205" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B206" t="s">
         <v>40</v>
@@ -11585,15 +11585,15 @@
         <v>8</v>
       </c>
       <c r="E206" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="F206" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B207" t="s">
         <v>32</v>
@@ -11605,15 +11605,15 @@
         <v>132</v>
       </c>
       <c r="E207" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="F207" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B208" t="s">
         <v>32</v>
@@ -11625,15 +11625,15 @@
         <v>27</v>
       </c>
       <c r="E208" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="F208" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B209" t="s">
         <v>15</v>
@@ -11645,15 +11645,15 @@
         <v>16</v>
       </c>
       <c r="E209" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="F209" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B210" t="s">
         <v>15</v>
@@ -11665,15 +11665,15 @@
         <v>27</v>
       </c>
       <c r="E210" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="F210" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B211" t="s">
         <v>15</v>
@@ -11685,15 +11685,15 @@
         <v>16</v>
       </c>
       <c r="E211" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="F211" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B212" t="s">
         <v>32</v>
@@ -11705,15 +11705,15 @@
         <v>27</v>
       </c>
       <c r="E212" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="F212" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B213" t="s">
         <v>15</v>
@@ -11725,15 +11725,15 @@
         <v>27</v>
       </c>
       <c r="E213" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="F213" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B214" t="s">
         <v>7</v>
@@ -11745,15 +11745,15 @@
         <v>27</v>
       </c>
       <c r="E214" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="F214" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B215" t="s">
         <v>7</v>
@@ -11765,15 +11765,15 @@
         <v>8</v>
       </c>
       <c r="E215" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="F215" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B216" t="s">
         <v>40</v>
@@ -11785,15 +11785,15 @@
         <v>12</v>
       </c>
       <c r="E216" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="F216" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B217" t="s">
         <v>15</v>
@@ -11805,15 +11805,15 @@
         <v>16</v>
       </c>
       <c r="E217" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="F217" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B218" t="s">
         <v>7</v>
@@ -11825,15 +11825,15 @@
         <v>8</v>
       </c>
       <c r="E218" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="F218" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B219" t="s">
         <v>15</v>
@@ -11845,15 +11845,15 @@
         <v>27</v>
       </c>
       <c r="E219" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="F219" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B220" t="s">
         <v>15</v>
@@ -11865,15 +11865,15 @@
         <v>27</v>
       </c>
       <c r="E220" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="F220" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B221" t="s">
         <v>15</v>
@@ -11885,15 +11885,15 @@
         <v>318</v>
       </c>
       <c r="E221" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="F221" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B222" t="s">
         <v>15</v>
@@ -11905,15 +11905,15 @@
         <v>318</v>
       </c>
       <c r="E222" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="F222" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B223" t="s">
         <v>32</v>
@@ -11925,15 +11925,15 @@
         <v>27</v>
       </c>
       <c r="E223" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="F223" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B224" t="s">
         <v>32</v>
@@ -11945,15 +11945,15 @@
         <v>132</v>
       </c>
       <c r="E224" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="F224" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B225" t="s">
         <v>234</v>
@@ -11965,15 +11965,15 @@
         <v>27</v>
       </c>
       <c r="E225" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="F225" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B226" t="s">
         <v>15</v>
@@ -11985,15 +11985,15 @@
         <v>132</v>
       </c>
       <c r="E226" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="F226" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B227" t="s">
         <v>7</v>
@@ -12005,15 +12005,15 @@
         <v>16</v>
       </c>
       <c r="E227" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="F227" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B228" t="s">
         <v>32</v>
@@ -12025,15 +12025,15 @@
         <v>8</v>
       </c>
       <c r="E228" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="F228" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B229" t="s">
         <v>7</v>
@@ -12045,15 +12045,15 @@
         <v>12</v>
       </c>
       <c r="E229" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="F229" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B230" t="s">
         <v>32</v>
@@ -12065,15 +12065,15 @@
         <v>27</v>
       </c>
       <c r="E230" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="F230" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B231" t="s">
         <v>7</v>
@@ -12085,15 +12085,15 @@
         <v>16</v>
       </c>
       <c r="E231" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F231" t="s">
-        <v>1213</v>
+        <v>678</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B232" t="s">
         <v>15</v>
@@ -12105,10 +12105,10 @@
         <v>27</v>
       </c>
       <c r="E232" t="s">
+        <v>676</v>
+      </c>
+      <c r="F232" t="s">
         <v>675</v>
-      </c>
-      <c r="F232" t="s">
-        <v>1214</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -15113,7 +15113,7 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="B383" t="s">
         <v>15</v>
@@ -15125,15 +15125,15 @@
         <v>8</v>
       </c>
       <c r="E383" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="F383" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="B384" t="s">
         <v>7</v>
@@ -15145,15 +15145,15 @@
         <v>12</v>
       </c>
       <c r="E384" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="F384" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="B385" t="s">
         <v>15</v>
@@ -15165,15 +15165,15 @@
         <v>27</v>
       </c>
       <c r="E385" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="F385" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="B386" t="s">
         <v>40</v>
@@ -15185,15 +15185,15 @@
         <v>27</v>
       </c>
       <c r="E386" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="F386" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="B387" t="s">
         <v>7</v>
@@ -15205,15 +15205,15 @@
         <v>12</v>
       </c>
       <c r="E387" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="F387" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="B388" t="s">
         <v>7</v>
@@ -15225,15 +15225,15 @@
         <v>27</v>
       </c>
       <c r="E388" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="F388" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="B389" t="s">
         <v>7</v>
@@ -15245,15 +15245,15 @@
         <v>8</v>
       </c>
       <c r="E389" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="F389" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="B390" t="s">
         <v>15</v>
@@ -15265,15 +15265,15 @@
         <v>27</v>
       </c>
       <c r="E390" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="F390" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="B391" t="s">
         <v>15</v>
@@ -15285,15 +15285,15 @@
         <v>16</v>
       </c>
       <c r="E391" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="F391" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="B392" t="s">
         <v>7</v>
@@ -15305,15 +15305,15 @@
         <v>12</v>
       </c>
       <c r="E392" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="F392" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="B393" t="s">
         <v>7</v>
@@ -15325,15 +15325,15 @@
         <v>12</v>
       </c>
       <c r="E393" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="F393" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="B394" t="s">
         <v>32</v>
@@ -15345,15 +15345,15 @@
         <v>27</v>
       </c>
       <c r="E394" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="F394" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="B395" t="s">
         <v>15</v>
@@ -15365,15 +15365,15 @@
         <v>27</v>
       </c>
       <c r="E395" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="F395" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="B396" t="s">
         <v>234</v>
@@ -15385,15 +15385,15 @@
         <v>16</v>
       </c>
       <c r="E396" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="F396" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="B397" t="s">
         <v>40</v>
@@ -15405,15 +15405,15 @@
         <v>8</v>
       </c>
       <c r="E397" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="F397" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="B398" t="s">
         <v>7</v>
@@ -15425,15 +15425,15 @@
         <v>12</v>
       </c>
       <c r="E398" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="F398" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="B399" t="s">
         <v>40</v>
@@ -15445,15 +15445,15 @@
         <v>8</v>
       </c>
       <c r="E399" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="F399" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="B400" t="s">
         <v>15</v>
@@ -15465,15 +15465,15 @@
         <v>12</v>
       </c>
       <c r="E400" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="F400" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="B401" t="s">
         <v>7</v>
@@ -15485,15 +15485,15 @@
         <v>8</v>
       </c>
       <c r="E401" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="F401" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="B402" t="s">
         <v>7</v>
@@ -15505,15 +15505,15 @@
         <v>8</v>
       </c>
       <c r="E402" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="F402" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="B403" t="s">
         <v>7</v>
@@ -15525,15 +15525,15 @@
         <v>8</v>
       </c>
       <c r="E403" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="F403" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="B404" t="s">
         <v>40</v>
@@ -15545,15 +15545,15 @@
         <v>8</v>
       </c>
       <c r="E404" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="F404" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="B405" t="s">
         <v>40</v>
@@ -15565,15 +15565,15 @@
         <v>12</v>
       </c>
       <c r="E405" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="F405" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="B406" t="s">
         <v>40</v>
@@ -15585,15 +15585,15 @@
         <v>12</v>
       </c>
       <c r="E406" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="F406" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="B407" t="s">
         <v>40</v>
@@ -15605,15 +15605,15 @@
         <v>8</v>
       </c>
       <c r="E407" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="F407" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="B408" t="s">
         <v>32</v>
@@ -15625,15 +15625,15 @@
         <v>12</v>
       </c>
       <c r="E408" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="F408" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="B409" t="s">
         <v>15</v>
@@ -15645,15 +15645,15 @@
         <v>12</v>
       </c>
       <c r="E409" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="F409" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="B410" t="s">
         <v>7</v>
@@ -15665,10 +15665,10 @@
         <v>8</v>
       </c>
       <c r="E410" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="F410" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
     </row>
   </sheetData>
